--- a/Rate_Consolidation/Example 5.7.xlsx
+++ b/Rate_Consolidation/Example 5.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$r.984804\Documents\GitHub\CIE365-Soil-mechanics\Rate_Consolidation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umainesystem-my.sharepoint.com/personal/luis_zambranocruzatty_maine_edu/Documents/UMaine_docs/Courses/CIE365 Soil Mechanics/CIE365-Soil-mechanics/Rate_Consolidation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A47C3-F2B0-47F3-A5B3-E3A07AE33BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{815A47C3-F2B0-47F3-A5B3-E3A07AE33BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3F82C5D-4940-4CA3-B958-F8094F6F1478}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D9A4A305-0BE6-4592-A154-B11603346338}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9A4A305-0BE6-4592-A154-B11603346338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
             <c:v>Settlement Vs time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="63500" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1496,8 +1496,8 @@
       <xdr:rowOff>116046</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3149632" cy="1084079"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1539,6 +1539,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1661,7 +1662,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2067,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D906F2A-CBEB-4A2E-9F15-FF2E2685A2D7}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,7 +2140,7 @@
         <v>2.0943951023931957E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D52" si="2">$G$1*A3/100</f>
+        <f t="shared" ref="D3:D51" si="2">$G$1*A3/100</f>
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="F3" t="s">
@@ -2194,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>IF(A6&lt;60, (A6/100)^2*PI()/4, 1.781-0.933*LOG(100-A6))</f>
         <v>5.0265482457436689E-3</v>
       </c>
       <c r="C6">
